--- a/out/artifacts/zhanglianyu_jar/File/测试设备/直播常用设备汇总.xlsx
+++ b/out/artifacts/zhanglianyu_jar/File/测试设备/直播常用设备汇总.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9FBB744-AF3E-4729-8A5C-ECE7A9C7A58E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37E98FEC-EB92-4BEB-8D80-5B4762C70099}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -367,6 +367,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -375,10 +379,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -720,50 +720,50 @@
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="17" customWidth="1"/>
     <col min="4" max="4" width="30" style="17" customWidth="1"/>
     <col min="5" max="5" width="20" style="16" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="15.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="18.625" style="17" customWidth="1"/>
+    <col min="7" max="8" width="15.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,9 +787,9 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
@@ -812,10 +812,10 @@
         <v>27</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -824,10 +824,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -836,10 +836,10 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -861,9 +861,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -884,10 +884,10 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -900,10 +900,10 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -979,7 +979,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -991,7 +991,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1003,7 +1003,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1015,7 +1015,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1027,7 +1027,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1039,7 +1039,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1051,7 +1051,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1063,7 +1063,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1075,7 +1075,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1087,7 +1087,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1099,7 +1099,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1111,7 +1111,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1123,7 +1123,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1135,7 +1135,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1147,7 +1147,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1159,7 +1159,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1171,7 +1171,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1183,7 +1183,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1195,7 +1195,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1207,7 +1207,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1219,7 +1219,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1231,7 +1231,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1243,7 +1243,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1255,7 +1255,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1267,7 +1267,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1279,7 +1279,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1291,7 +1291,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1303,7 +1303,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1315,7 +1315,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1327,7 +1327,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1339,7 +1339,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1351,7 +1351,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1363,7 +1363,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1375,7 +1375,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1387,7 +1387,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1397,7 +1397,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1409,7 +1409,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1421,7 +1421,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1433,7 +1433,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1445,7 +1445,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1457,7 +1457,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1469,7 +1469,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1481,7 +1481,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1493,7 +1493,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1505,7 +1505,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1517,7 +1517,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1529,7 +1529,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1541,7 +1541,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1553,7 +1553,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -1565,7 +1565,7 @@
       <c r="I62" s="14"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -1577,7 +1577,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -1589,7 +1589,7 @@
       <c r="I64" s="14"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -1601,7 +1601,7 @@
       <c r="I65" s="14"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -1613,7 +1613,7 @@
       <c r="I66" s="14"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -1625,7 +1625,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -1637,7 +1637,7 @@
       <c r="I68" s="14"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1649,7 +1649,7 @@
       <c r="I69" s="14"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -1661,7 +1661,7 @@
       <c r="I70" s="14"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -1673,7 +1673,7 @@
       <c r="I71" s="14"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -1685,7 +1685,7 @@
       <c r="I72" s="14"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -1697,7 +1697,7 @@
       <c r="I73" s="14"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -1709,7 +1709,7 @@
       <c r="I74" s="14"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -1721,7 +1721,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -1733,7 +1733,7 @@
       <c r="I76" s="14"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -1745,7 +1745,7 @@
       <c r="I77" s="14"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -1757,7 +1757,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -1769,7 +1769,7 @@
       <c r="I79" s="14"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -1781,7 +1781,7 @@
       <c r="I80" s="14"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -1793,7 +1793,7 @@
       <c r="I81" s="14"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -1805,7 +1805,7 @@
       <c r="I82" s="23"/>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -1816,7 +1816,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -1827,7 +1827,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -1838,7 +1838,7 @@
       <c r="H85" s="22"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -1849,7 +1849,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -1860,7 +1860,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -1871,7 +1871,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -1879,7 +1879,7 @@
       <c r="E89" s="13"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -1887,7 +1887,7 @@
       <c r="E90" s="13"/>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="1:10" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -1895,7 +1895,7 @@
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:10" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -1903,7 +1903,7 @@
       <c r="E92" s="13"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:10" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -1911,7 +1911,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:10" s="20" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="20" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -1921,7 +1921,7 @@
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
     </row>
-    <row r="95" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -1929,7 +1929,7 @@
       <c r="E95" s="13"/>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" spans="1:10" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -1937,7 +1937,7 @@
       <c r="E96" s="13"/>
       <c r="F96" s="14"/>
     </row>
-    <row r="97" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -1945,7 +1945,7 @@
       <c r="E97" s="13"/>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="1:6" s="20" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="20" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -1953,7 +1953,7 @@
       <c r="E98" s="13"/>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -1961,7 +1961,7 @@
       <c r="E99" s="13"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -1969,7 +1969,7 @@
       <c r="E100" s="13"/>
       <c r="F100" s="14"/>
     </row>
-    <row r="101" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -1977,7 +1977,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="14"/>
     </row>
-    <row r="102" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -1985,7 +1985,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -1993,7 +1993,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="14"/>
     </row>
-    <row r="104" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2001,7 +2001,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2009,7 +2009,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="14"/>
     </row>
-    <row r="106" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2017,7 +2017,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
     </row>
-    <row r="107" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2025,7 +2025,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2033,7 +2033,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2041,7 +2041,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2049,7 +2049,7 @@
       <c r="E110" s="13"/>
       <c r="F110" s="14"/>
     </row>
-    <row r="111" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2057,7 +2057,7 @@
       <c r="E111" s="13"/>
       <c r="F111" s="14"/>
     </row>
-    <row r="112" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2065,7 +2065,7 @@
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2073,7 +2073,7 @@
       <c r="E113" s="13"/>
       <c r="F113" s="14"/>
     </row>
-    <row r="114" spans="1:6" s="20" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="20" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2081,7 +2081,7 @@
       <c r="E114" s="13"/>
       <c r="F114" s="14"/>
     </row>
-    <row r="115" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2089,7 +2089,7 @@
       <c r="E115" s="13"/>
       <c r="F115" s="14"/>
     </row>
-    <row r="116" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2097,7 +2097,7 @@
       <c r="E116" s="13"/>
       <c r="F116" s="14"/>
     </row>
-    <row r="117" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2105,7 +2105,7 @@
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
     </row>
-    <row r="118" spans="1:6" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -2113,7 +2113,7 @@
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
     </row>
-    <row r="119" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -2121,7 +2121,7 @@
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
     </row>
-    <row r="120" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -2129,7 +2129,7 @@
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
     </row>
-    <row r="121" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -2137,7 +2137,7 @@
       <c r="E121" s="13"/>
       <c r="F121" s="14"/>
     </row>
-    <row r="122" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -2145,7 +2145,7 @@
       <c r="E122" s="13"/>
       <c r="F122" s="14"/>
     </row>
-    <row r="123" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2153,7 +2153,7 @@
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
     </row>
-    <row r="124" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2161,7 +2161,7 @@
       <c r="E124" s="13"/>
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2169,7 +2169,7 @@
       <c r="E125" s="13"/>
       <c r="F125" s="14"/>
     </row>
-    <row r="126" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2177,7 +2177,7 @@
       <c r="E126" s="13"/>
       <c r="F126" s="14"/>
     </row>
-    <row r="127" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2185,7 +2185,7 @@
       <c r="E127" s="13"/>
       <c r="F127" s="14"/>
     </row>
-    <row r="128" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2193,7 +2193,7 @@
       <c r="E128" s="13"/>
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
